--- a/074 Чтение файлов из Exel/2.xlsx
+++ b/074 Чтение файлов из Exel/2.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9085F9BF-D4D6-49DE-ADA2-917DBE19952A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -399,10 +398,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8336A9B-EE68-4B79-AF9F-EEFB507BBE47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -488,7 +487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD83A36-0294-4F42-B8A3-635B392FE6D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -519,10 +518,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B35F347-ABEA-40CF-82AB-AC0083446073}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/074 Чтение файлов из Exel/2.xlsx
+++ b/074 Чтение файлов из Exel/2.xlsx
@@ -11,7 +11,7 @@
     <sheet name="sheets 2" sheetId="3" r:id="rId2"/>
     <sheet name="Лист3" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,45 +21,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Иванов</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>Василий</t>
-  </si>
-  <si>
-    <t>Даня</t>
-  </si>
-  <si>
-    <t>Саша</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>Салют</t>
-  </si>
-  <si>
-    <t>Кинжал</t>
-  </si>
-  <si>
-    <t>Дома</t>
-  </si>
-  <si>
-    <t>Первый снег</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
     <t>Значение</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>Xerox 6500</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>HP 4200</t>
+  </si>
+  <si>
+    <t>192.168.1.3</t>
   </si>
 </sst>
 </file>
@@ -116,9 +98,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -399,87 +384,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>1980</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1921</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1976</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1827</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -498,7 +456,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>2</v>
